--- a/src/stp/database/2024-mens-copa-america.xlsx
+++ b/src/stp/database/2024-mens-copa-america.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1137324D-677E-5547-AF30-5201C9D59000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF747B2D-882E-B548-A9CF-8A497BD0DAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -1481,7 +1481,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1981,13 +1987,17 @@
     <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team"/>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team"/>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="1">
+      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="0">
+      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2024,26 +2034,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CE04D0A-CAC9-42EF-999D-5A90EB55AC28}" name="Table3" displayName="Table3" ref="A1:M33" totalsRowShown="0" headerRowDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CE04D0A-CAC9-42EF-999D-5A90EB55AC28}" name="Table3" displayName="Table3" ref="A1:M33" totalsRowShown="0" headerRowDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A1:M33" xr:uid="{9CE04D0A-CAC9-42EF-999D-5A90EB55AC28}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1B8255EA-385E-448C-BFF0-15D3FAEB008C}" name="match" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{333537F6-02DC-43D1-AE95-2FDA8F8545AE}" name="group" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{A623E5AF-6F77-48E7-8408-C9DF33B599FE}" name="date" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{C71C8116-A80F-4C88-94D2-2105510B6845}" name="home" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{360B7BF3-162A-4D2D-9DBF-E6AD730C2F1C}" name="away" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{58920BD6-62A5-4370-9E66-99B922B1F84A}" name="location" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{D8DE90CC-C321-4A0F-9631-FFBAB5E0C1DD}" name="location.code" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{1B8255EA-385E-448C-BFF0-15D3FAEB008C}" name="match" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{333537F6-02DC-43D1-AE95-2FDA8F8545AE}" name="group" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{A623E5AF-6F77-48E7-8408-C9DF33B599FE}" name="date" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{C71C8116-A80F-4C88-94D2-2105510B6845}" name="home" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{360B7BF3-162A-4D2D-9DBF-E6AD730C2F1C}" name="away" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{58920BD6-62A5-4370-9E66-99B922B1F84A}" name="location" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{D8DE90CC-C321-4A0F-9631-FFBAB5E0C1DD}" name="location.code" dataDxfId="23">
       <calculatedColumnFormula>INDEX('#venues'!$A$2:$A$15,MATCH('#matches'!$F2,'#venues'!$B$2:$B$15,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{479E0FC3-8C44-42F5-91D0-CAF341856CFF}" name="location.tz" dataDxfId="20">
+    <tableColumn id="8" xr3:uid="{479E0FC3-8C44-42F5-91D0-CAF341856CFF}" name="location.tz" dataDxfId="22">
       <calculatedColumnFormula>INDEX('#venues'!$C$2:$C$15,MATCH('#matches'!$F2,'#venues'!$B$2:$B$15,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{33B555FF-1525-4647-8A26-4AF178C2D50B}" name="home.code" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{6F01F904-7CD0-4562-9012-AAD0625BAC1F}" name="away.code" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{C5F18400-9B55-416A-9A39-94E52CE8614C}" name="home.seed" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{BBE9B22F-B8EB-4D6D-ACF4-D15933365443}" name="away.seed" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{0B3917F1-1F81-4F48-BF79-07CD54D45594}" name="date.utc" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{33B555FF-1525-4647-8A26-4AF178C2D50B}" name="home.code" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{6F01F904-7CD0-4562-9012-AAD0625BAC1F}" name="away.code" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{C5F18400-9B55-416A-9A39-94E52CE8614C}" name="home.seed" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{BBE9B22F-B8EB-4D6D-ACF4-D15933365443}" name="away.seed" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{0B3917F1-1F81-4F48-BF79-07CD54D45594}" name="date.utc" dataDxfId="17">
       <calculatedColumnFormula>'#matches'!$C2+'#matches'!$H2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2052,12 +2062,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9D892A45-FE66-44EC-8988-5C861DD34C69}" name="Table5" displayName="Table5" ref="A1:C17" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9D892A45-FE66-44EC-8988-5C861DD34C69}" name="Table5" displayName="Table5" ref="A1:C17" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:C17" xr:uid="{9D892A45-FE66-44EC-8988-5C861DD34C69}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C1EB50F5-D1BA-4A80-98D6-4FD530839378}" name="seed" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{2F8DD596-1F8D-4A24-96B9-1556EF0599C0}" name="team" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FD8E5E2E-FCE0-4D70-A055-845C6FE30B08}" name="team.lower" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{C1EB50F5-D1BA-4A80-98D6-4FD530839378}" name="seed" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{2F8DD596-1F8D-4A24-96B9-1556EF0599C0}" name="team" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FD8E5E2E-FCE0-4D70-A055-845C6FE30B08}" name="team.lower" dataDxfId="12">
       <calculatedColumnFormula>LOWER('#seeds'!$B2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2066,23 +2076,23 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{04A99FB6-88C7-4CB5-8839-ECB08BD14B01}" name="Table6" displayName="Table6" ref="A1:B86" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{04A99FB6-88C7-4CB5-8839-ECB08BD14B01}" name="Table6" displayName="Table6" ref="A1:B86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:B86" xr:uid="{04A99FB6-88C7-4CB5-8839-ECB08BD14B01}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4BA3BBA0-E012-47FE-A8C1-BE58E18A5252}" name="key" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CFF7F808-07C8-489E-A17F-2EA1332F910D}" name="en" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{4BA3BBA0-E012-47FE-A8C1-BE58E18A5252}" name="key" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CFF7F808-07C8-489E-A17F-2EA1332F910D}" name="en" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F21910B9-B0EE-4804-8298-B1FEC2574266}" name="Table8" displayName="Table8" ref="A1:C15" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F21910B9-B0EE-4804-8298-B1FEC2574266}" name="Table8" displayName="Table8" ref="A1:C15" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:C15" xr:uid="{F21910B9-B0EE-4804-8298-B1FEC2574266}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3067016A-DAE9-4C32-B681-2121ED9ADBFD}" name="venue" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{9EE6702F-E7B5-441A-A332-F6944F8C7751}" name="city" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FFC8A035-989F-4D69-A3E9-A49C55C8AB96}" name="tz" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3067016A-DAE9-4C32-B681-2121ED9ADBFD}" name="venue" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9EE6702F-E7B5-441A-A332-F6944F8C7751}" name="city" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FFC8A035-989F-4D69-A3E9-A49C55C8AB96}" name="tz" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2387,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2951,8 +2961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3015,6 +3025,14 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ARG</v>
+      </c>
+      <c r="G2" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CAN</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3036,6 +3054,14 @@
       <c r="E3">
         <v>2</v>
       </c>
+      <c r="F3" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PER</v>
+      </c>
+      <c r="G3" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CHI</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3057,6 +3083,14 @@
       <c r="E4">
         <v>4</v>
       </c>
+      <c r="F4" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MEX</v>
+      </c>
+      <c r="G4" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>JAM</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3078,6 +3112,14 @@
       <c r="E5">
         <v>3</v>
       </c>
+      <c r="F5" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ECU</v>
+      </c>
+      <c r="G5" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>VEN</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3099,6 +3141,14 @@
       <c r="E6">
         <v>2</v>
       </c>
+      <c r="F6" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>USA</v>
+      </c>
+      <c r="G6" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BOL</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3120,6 +3170,14 @@
       <c r="E7">
         <v>5</v>
       </c>
+      <c r="F7" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>URU</v>
+      </c>
+      <c r="G7" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAN</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3141,6 +3199,14 @@
       <c r="E8">
         <v>6</v>
       </c>
+      <c r="F8" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BRA</v>
+      </c>
+      <c r="G8" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CRC</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3162,6 +3228,14 @@
       <c r="E9">
         <v>4</v>
       </c>
+      <c r="F9" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>COL</v>
+      </c>
+      <c r="G9" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAR</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3183,6 +3257,14 @@
       <c r="E10">
         <v>8</v>
       </c>
+      <c r="F10" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CHI</v>
+      </c>
+      <c r="G10" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ARG</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3204,6 +3286,14 @@
       <c r="E11">
         <v>7</v>
       </c>
+      <c r="F11" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PER</v>
+      </c>
+      <c r="G11" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CAN</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3225,6 +3315,14 @@
       <c r="E12">
         <v>6</v>
       </c>
+      <c r="F12" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>VEN</v>
+      </c>
+      <c r="G12" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>MEX</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3246,6 +3344,14 @@
       <c r="E13">
         <v>9</v>
       </c>
+      <c r="F13" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ECU</v>
+      </c>
+      <c r="G13" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>JAM</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3267,6 +3373,14 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PAN</v>
+      </c>
+      <c r="G14" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>USA</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3288,6 +3402,14 @@
       <c r="E15">
         <v>8</v>
       </c>
+      <c r="F15" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>URU</v>
+      </c>
+      <c r="G15" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BOL</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3309,6 +3431,14 @@
       <c r="E16">
         <v>9</v>
       </c>
+      <c r="F16" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PAR</v>
+      </c>
+      <c r="G16" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BRA</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3330,6 +3460,14 @@
       <c r="E17">
         <v>10</v>
       </c>
+      <c r="F17" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>COL</v>
+      </c>
+      <c r="G17" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CRC</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3351,6 +3489,14 @@
       <c r="E18">
         <v>5</v>
       </c>
+      <c r="F18" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ARG</v>
+      </c>
+      <c r="G18" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PER</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3372,6 +3518,14 @@
       <c r="E19">
         <v>11</v>
       </c>
+      <c r="F19" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CAN</v>
+      </c>
+      <c r="G19" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CHI</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3393,6 +3547,14 @@
       <c r="E20">
         <v>10</v>
       </c>
+      <c r="F20" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MEX</v>
+      </c>
+      <c r="G20" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ECU</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3414,6 +3576,14 @@
       <c r="E21">
         <v>12</v>
       </c>
+      <c r="F21" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>JAM</v>
+      </c>
+      <c r="G21" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>VEN</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3435,6 +3605,14 @@
       <c r="E22">
         <v>13</v>
       </c>
+      <c r="F22" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>USA</v>
+      </c>
+      <c r="G22" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>URU</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3456,6 +3634,14 @@
       <c r="E23">
         <v>11</v>
       </c>
+      <c r="F23" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BOL</v>
+      </c>
+      <c r="G23" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAN</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3477,6 +3663,14 @@
       <c r="E24">
         <v>3</v>
       </c>
+      <c r="F24" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BRA</v>
+      </c>
+      <c r="G24" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>COL</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3497,6 +3691,14 @@
       </c>
       <c r="E25">
         <v>12</v>
+      </c>
+      <c r="F25" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CRC</v>
+      </c>
+      <c r="G25" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAR</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>

--- a/src/stp/database/2024-mens-copa-america.xlsx
+++ b/src/stp/database/2024-mens-copa-america.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0593FF22-94B0-334A-AE9D-42BA5C13D266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18BFCD9-E55F-FD44-9E1F-3CBC68F808D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="422">
   <si>
     <t>key</t>
   </si>
@@ -1214,6 +1214,99 @@
   </si>
   <si>
     <t>کوپا آمریکا</t>
+  </si>
+  <si>
+    <t>competition-key</t>
+  </si>
+  <si>
+    <t>host-key</t>
+  </si>
+  <si>
+    <t>mens-copa-america</t>
+  </si>
+  <si>
+    <t>venue-key.1</t>
+  </si>
+  <si>
+    <t>us-atlanta-ga</t>
+  </si>
+  <si>
+    <t>venue-key.2</t>
+  </si>
+  <si>
+    <t>us-arlington-tx</t>
+  </si>
+  <si>
+    <t>venue-key.3</t>
+  </si>
+  <si>
+    <t>us-santa-clara-ca</t>
+  </si>
+  <si>
+    <t>venue-key.4</t>
+  </si>
+  <si>
+    <t>us-houston-tx</t>
+  </si>
+  <si>
+    <t>venue-key.5</t>
+  </si>
+  <si>
+    <t>us-miami-fl</t>
+  </si>
+  <si>
+    <t>venue-key.6</t>
+  </si>
+  <si>
+    <t>us-inglewood-ca</t>
+  </si>
+  <si>
+    <t>venue-key.7</t>
+  </si>
+  <si>
+    <t>us-kansas-city-ks</t>
+  </si>
+  <si>
+    <t>venue-key.8</t>
+  </si>
+  <si>
+    <t>us-east-rutherford-nj</t>
+  </si>
+  <si>
+    <t>venue-key.9</t>
+  </si>
+  <si>
+    <t>us-las-vegas-nv</t>
+  </si>
+  <si>
+    <t>venue-key.10</t>
+  </si>
+  <si>
+    <t>us-glendale-az</t>
+  </si>
+  <si>
+    <t>venue-key.11</t>
+  </si>
+  <si>
+    <t>us-orlando-fl</t>
+  </si>
+  <si>
+    <t>venue-key.12</t>
+  </si>
+  <si>
+    <t>us-austin-tx</t>
+  </si>
+  <si>
+    <t>venue-key.13</t>
+  </si>
+  <si>
+    <t>us-kansas-city-mo</t>
+  </si>
+  <si>
+    <t>venue-key.14</t>
+  </si>
+  <si>
+    <t>us-charlotte-nc</t>
   </si>
 </sst>
 </file>
@@ -1869,8 +1962,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tournament" displayName="tournament" ref="A1:I18" totalsRowShown="0">
-  <autoFilter ref="A1:I18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tournament" displayName="tournament" ref="A1:I34" totalsRowShown="0">
+  <autoFilter ref="A1:I34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="en"/>
@@ -2305,13 +2398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2358,459 +2451,587 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>388</v>
+      </c>
+      <c r="H4" t="s">
+        <v>389</v>
+      </c>
+      <c r="I4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>93</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>94</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>95</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>96</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>94</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>94</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H20" t="s">
         <v>97</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I20" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>394</v>
+      </c>
+      <c r="B21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>406</v>
+      </c>
+      <c r="B27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>410</v>
+      </c>
+      <c r="B29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>412</v>
+      </c>
+      <c r="B30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>414</v>
+      </c>
+      <c r="B31" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>416</v>
+      </c>
+      <c r="B32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>420</v>
+      </c>
+      <c r="B34" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/2024-mens-copa-america.xlsx
+++ b/src/stp/database/2024-mens-copa-america.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18BFCD9-E55F-FD44-9E1F-3CBC68F808D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F05DD8D-B436-8244-9FF2-C18D33C23845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="#teams" sheetId="7" r:id="rId7"/>
     <sheet name="#venues" sheetId="8" r:id="rId8"/>
     <sheet name="#cities" sheetId="9" r:id="rId9"/>
+    <sheet name="Properties" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="423">
   <si>
     <t>key</t>
   </si>
@@ -1216,97 +1217,100 @@
     <t>کوپا آمریکا</t>
   </si>
   <si>
-    <t>competition-key</t>
-  </si>
-  <si>
-    <t>host-key</t>
-  </si>
-  <si>
     <t>mens-copa-america</t>
   </si>
   <si>
-    <t>venue-key.1</t>
-  </si>
-  <si>
     <t>us-atlanta-ga</t>
   </si>
   <si>
-    <t>venue-key.2</t>
-  </si>
-  <si>
     <t>us-arlington-tx</t>
   </si>
   <si>
-    <t>venue-key.3</t>
-  </si>
-  <si>
     <t>us-santa-clara-ca</t>
   </si>
   <si>
-    <t>venue-key.4</t>
-  </si>
-  <si>
     <t>us-houston-tx</t>
   </si>
   <si>
-    <t>venue-key.5</t>
-  </si>
-  <si>
     <t>us-miami-fl</t>
   </si>
   <si>
-    <t>venue-key.6</t>
-  </si>
-  <si>
     <t>us-inglewood-ca</t>
   </si>
   <si>
-    <t>venue-key.7</t>
-  </si>
-  <si>
     <t>us-kansas-city-ks</t>
   </si>
   <si>
-    <t>venue-key.8</t>
-  </si>
-  <si>
     <t>us-east-rutherford-nj</t>
   </si>
   <si>
-    <t>venue-key.9</t>
-  </si>
-  <si>
     <t>us-las-vegas-nv</t>
   </si>
   <si>
-    <t>venue-key.10</t>
-  </si>
-  <si>
     <t>us-glendale-az</t>
   </si>
   <si>
-    <t>venue-key.11</t>
-  </si>
-  <si>
     <t>us-orlando-fl</t>
   </si>
   <si>
-    <t>venue-key.12</t>
-  </si>
-  <si>
     <t>us-austin-tx</t>
   </si>
   <si>
-    <t>venue-key.13</t>
-  </si>
-  <si>
     <t>us-kansas-city-mo</t>
   </si>
   <si>
-    <t>venue-key.14</t>
-  </si>
-  <si>
     <t>us-charlotte-nc</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>color.a</t>
+  </si>
+  <si>
+    <t>color.b</t>
+  </si>
+  <si>
+    <t>color.c</t>
+  </si>
+  <si>
+    <t>color.d</t>
+  </si>
+  <si>
+    <t>venue.01</t>
+  </si>
+  <si>
+    <t>venue.02</t>
+  </si>
+  <si>
+    <t>venue.03</t>
+  </si>
+  <si>
+    <t>venue.04</t>
+  </si>
+  <si>
+    <t>venue.05</t>
+  </si>
+  <si>
+    <t>venue.06</t>
+  </si>
+  <si>
+    <t>venue.07</t>
+  </si>
+  <si>
+    <t>venue.08</t>
+  </si>
+  <si>
+    <t>venue.09</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>US/Eastern</t>
   </si>
 </sst>
 </file>
@@ -1962,8 +1966,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tournament" displayName="tournament" ref="A1:I34" totalsRowShown="0">
-  <autoFilter ref="A1:I34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tournament" displayName="tournament" ref="A1:I18" totalsRowShown="0">
+  <autoFilter ref="A1:I18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="en"/>
@@ -2096,6 +2100,21 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="venue" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="city" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="tz" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F50DD404-9D19-1348-B9DF-3D118F09D075}" name="Table9" displayName="Table9" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{F50DD404-9D19-1348-B9DF-3D118F09D075}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5B94B860-AA86-BA4A-96A3-B5E6AC38B906}" name="key"/>
+    <tableColumn id="2" xr3:uid="{DB981586-443B-5E46-AE67-1E5E477F5A70}" name="value"/>
+    <tableColumn id="3" xr3:uid="{21D2ECB6-1496-CD44-B8CB-65015792C9FB}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2398,13 +2417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD3"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2451,592 +2470,678 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+      <c r="H2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I4" t="s">
-        <v>390</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>394</v>
-      </c>
-      <c r="B21" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="B22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>398</v>
-      </c>
-      <c r="B23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>400</v>
-      </c>
-      <c r="B24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>402</v>
-      </c>
-      <c r="B25" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>404</v>
-      </c>
-      <c r="B26" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>406</v>
-      </c>
-      <c r="B27" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>408</v>
-      </c>
-      <c r="B28" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>410</v>
-      </c>
-      <c r="B29" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>412</v>
-      </c>
-      <c r="B30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>414</v>
-      </c>
-      <c r="B31" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>416</v>
-      </c>
-      <c r="B32" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>418</v>
-      </c>
-      <c r="B33" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>420</v>
-      </c>
-      <c r="B34" t="s">
-        <v>421</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C6FE63-BEFB-3D4E-9750-4443FF101BEA}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4263,7 +4368,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J2" activeCellId="1" sqref="B2:B5 J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/stp/database/2024-mens-copa-america.xlsx
+++ b/src/stp/database/2024-mens-copa-america.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1346E7CA-289E-D441-9852-FB87B914C25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7652E4BF-D91B-AC4F-8666-4E3916E7246B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
   <si>
     <t>key</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t>US/Eastern</t>
+  </si>
+  <si>
+    <t>home-known</t>
+  </si>
+  <si>
+    <t>away-known</t>
+  </si>
+  <si>
+    <t>after-extra-time</t>
   </si>
 </sst>
 </file>
@@ -461,25 +470,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="matches" displayName="matches" ref="A1:K33" totalsRowShown="0">
-  <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="matches" displayName="matches" ref="A1:N33" totalsRowShown="0">
+  <autoFilter ref="A1:N33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N33">
     <sortCondition ref="A1:A33"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="match"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="time"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="venue" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-team" dataDxfId="5">
-      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-known" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-team" dataDxfId="4">
-      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-known" dataDxfId="4">
+      <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="13" xr3:uid="{853604CC-A408-BE45-9C44-CB794E31F333}" name="home-team"/>
+    <tableColumn id="12" xr3:uid="{B14B878A-9949-AF4C-8D75-E1D8991417D9}" name="away-team"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="home-score" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="away-score" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{DC2C29D7-EE6A-4B42-8893-E6EE635F7369}" name="after-extra-time"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="home-tiebreaker" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="away-tiebreaker" dataDxfId="0"/>
   </tableColumns>
@@ -797,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C6FE63-BEFB-3D4E-9750-4443FF101BEA}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1009,22 +1021,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1041,25 +1054,34 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1076,21 +1098,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ARG</v>
       </c>
       <c r="G2" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CAN</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1107,21 +1123,15 @@
         <v>2</v>
       </c>
       <c r="F3" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PER</v>
       </c>
       <c r="G3" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CHI</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1138,21 +1148,15 @@
         <v>4</v>
       </c>
       <c r="F4" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MEX</v>
       </c>
       <c r="G4" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>JAM</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1169,21 +1173,15 @@
         <v>3</v>
       </c>
       <c r="F5" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ECU</v>
       </c>
       <c r="G5" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>VEN</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1200,21 +1198,15 @@
         <v>2</v>
       </c>
       <c r="F6" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>USA</v>
       </c>
       <c r="G6" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>BOL</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1231,21 +1223,15 @@
         <v>5</v>
       </c>
       <c r="F7" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>URU</v>
       </c>
       <c r="G7" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>PAN</v>
       </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1262,21 +1248,15 @@
         <v>6</v>
       </c>
       <c r="F8" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BRA</v>
       </c>
       <c r="G8" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CRC</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1293,21 +1273,15 @@
         <v>4</v>
       </c>
       <c r="F9" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>COL</v>
       </c>
       <c r="G9" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>PAR</v>
       </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1324,21 +1298,15 @@
         <v>8</v>
       </c>
       <c r="F10" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CHI</v>
       </c>
       <c r="G10" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ARG</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1355,21 +1323,15 @@
         <v>7</v>
       </c>
       <c r="F11" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PER</v>
       </c>
       <c r="G11" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CAN</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1386,21 +1348,15 @@
         <v>6</v>
       </c>
       <c r="F12" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>VEN</v>
       </c>
       <c r="G12" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>MEX</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1417,21 +1373,15 @@
         <v>9</v>
       </c>
       <c r="F13" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ECU</v>
       </c>
       <c r="G13" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>JAM</v>
       </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1448,21 +1398,15 @@
         <v>1</v>
       </c>
       <c r="F14" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PAN</v>
       </c>
       <c r="G14" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>USA</v>
       </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1479,21 +1423,15 @@
         <v>8</v>
       </c>
       <c r="F15" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>URU</v>
       </c>
       <c r="G15" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>BOL</v>
       </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1510,21 +1448,15 @@
         <v>9</v>
       </c>
       <c r="F16" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PAR</v>
       </c>
       <c r="G16" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>BRA</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1541,21 +1473,15 @@
         <v>10</v>
       </c>
       <c r="F17" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>COL</v>
       </c>
       <c r="G17" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CRC</v>
       </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1572,21 +1498,15 @@
         <v>5</v>
       </c>
       <c r="F18" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ARG</v>
       </c>
       <c r="G18" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>PER</v>
       </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1603,21 +1523,15 @@
         <v>11</v>
       </c>
       <c r="F19" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CAN</v>
       </c>
       <c r="G19" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CHI</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1634,21 +1548,15 @@
         <v>10</v>
       </c>
       <c r="F20" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MEX</v>
       </c>
       <c r="G20" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ECU</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1665,21 +1573,15 @@
         <v>12</v>
       </c>
       <c r="F21" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>JAM</v>
       </c>
       <c r="G21" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>VEN</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1696,21 +1598,15 @@
         <v>13</v>
       </c>
       <c r="F22" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>USA</v>
       </c>
       <c r="G22" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>URU</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1727,21 +1623,15 @@
         <v>11</v>
       </c>
       <c r="F23" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BOL</v>
       </c>
       <c r="G23" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>PAN</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1758,21 +1648,15 @@
         <v>3</v>
       </c>
       <c r="F24" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BRA</v>
       </c>
       <c r="G24" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>COL</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1789,21 +1673,15 @@
         <v>12</v>
       </c>
       <c r="F25" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CRC</v>
       </c>
       <c r="G25" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>PAR</v>
       </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1819,26 +1697,16 @@
       <c r="E26">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1854,26 +1722,16 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1889,26 +1747,16 @@
       <c r="E28">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1924,20 +1772,16 @@
       <c r="E29">
         <v>10</v>
       </c>
-      <c r="F29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1953,20 +1797,16 @@
       <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1982,20 +1822,16 @@
       <c r="E31">
         <v>14</v>
       </c>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2011,26 +1847,16 @@
       <c r="E32">
         <v>14</v>
       </c>
-      <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2046,17 +1872,13 @@
       <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
+      <c r="F33" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/2024-mens-copa-america.xlsx
+++ b/src/stp/database/2024-mens-copa-america.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7652E4BF-D91B-AC4F-8666-4E3916E7246B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC03DA07-419E-1F45-A4AA-FB9AA096A24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Properties" sheetId="10" r:id="rId1"/>
+    <sheet name="Properties" sheetId="1" r:id="rId1"/>
     <sheet name="Matches" sheetId="2" r:id="rId2"/>
     <sheet name="Seeds" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -35,93 +35,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
   <si>
     <t>key</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>mens-copa-america</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>US/Eastern</t>
+  </si>
+  <si>
+    <t>color.a</t>
+  </si>
+  <si>
+    <t>#b0d0ee</t>
+  </si>
+  <si>
+    <t>pale blue</t>
+  </si>
+  <si>
+    <t>color.b</t>
+  </si>
+  <si>
+    <t>#fab077</t>
+  </si>
+  <si>
+    <t>pale orange</t>
+  </si>
+  <si>
+    <t>color.c</t>
+  </si>
+  <si>
+    <t>#c4e1b5</t>
+  </si>
+  <si>
+    <t>pale green</t>
+  </si>
+  <si>
+    <t>color.d</t>
+  </si>
+  <si>
+    <t>#fee289</t>
+  </si>
+  <si>
+    <t>pale yellow</t>
+  </si>
+  <si>
+    <t>venue.01</t>
+  </si>
+  <si>
+    <t>us-atlanta-ga</t>
+  </si>
+  <si>
+    <t>venue.02</t>
+  </si>
+  <si>
+    <t>us-arlington-tx</t>
+  </si>
+  <si>
+    <t>venue.03</t>
+  </si>
+  <si>
+    <t>us-santa-clara-ca</t>
+  </si>
+  <si>
+    <t>venue.04</t>
+  </si>
+  <si>
+    <t>us-houston-tx</t>
+  </si>
+  <si>
+    <t>venue.05</t>
+  </si>
+  <si>
+    <t>us-miami-fl</t>
+  </si>
+  <si>
+    <t>venue.06</t>
+  </si>
+  <si>
+    <t>us-inglewood-ca</t>
+  </si>
+  <si>
+    <t>venue.07</t>
+  </si>
+  <si>
+    <t>us-kansas-city-ks</t>
+  </si>
+  <si>
+    <t>venue.08</t>
+  </si>
+  <si>
+    <t>us-east-rutherford-nj</t>
+  </si>
+  <si>
+    <t>venue.09</t>
+  </si>
+  <si>
+    <t>us-las-vegas-nv</t>
+  </si>
+  <si>
+    <t>venue.10</t>
+  </si>
+  <si>
+    <t>us-glendale-az</t>
+  </si>
+  <si>
+    <t>venue.11</t>
+  </si>
+  <si>
+    <t>us-orlando-fl</t>
+  </si>
+  <si>
+    <t>venue.12</t>
+  </si>
+  <si>
+    <t>us-austin-tx</t>
+  </si>
+  <si>
+    <t>venue.13</t>
+  </si>
+  <si>
+    <t>us-kansas-city-mo</t>
+  </si>
+  <si>
+    <t>venue.14</t>
+  </si>
+  <si>
+    <t>us-charlotte-nc</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>home-seed</t>
+  </si>
+  <si>
+    <t>away-seed</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>home-known</t>
+  </si>
+  <si>
+    <t>away-known</t>
+  </si>
+  <si>
+    <t>home-team</t>
+  </si>
+  <si>
+    <t>away-team</t>
+  </si>
+  <si>
+    <t>home-score</t>
+  </si>
+  <si>
+    <t>away-score</t>
+  </si>
+  <si>
+    <t>after-extra-time</t>
+  </si>
+  <si>
+    <t>home-tiebreaker</t>
+  </si>
+  <si>
+    <t>away-tiebreaker</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>USA</t>
   </si>
   <si>
-    <t>timezone</t>
-  </si>
-  <si>
-    <t>venue.10</t>
-  </si>
-  <si>
-    <t>venue.11</t>
-  </si>
-  <si>
-    <t>venue.12</t>
-  </si>
-  <si>
-    <t>venue.13</t>
-  </si>
-  <si>
-    <t>venue.14</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>home-seed</t>
-  </si>
-  <si>
-    <t>away-seed</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>venue</t>
-  </si>
-  <si>
-    <t>home-team</t>
-  </si>
-  <si>
-    <t>away-team</t>
-  </si>
-  <si>
-    <t>home-score</t>
-  </si>
-  <si>
-    <t>away-score</t>
-  </si>
-  <si>
-    <t>home-tiebreaker</t>
-  </si>
-  <si>
-    <t>away-tiebreaker</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C4</t>
+    <t>BOL</t>
   </si>
   <si>
     <t>C2</t>
@@ -130,66 +292,60 @@
     <t>C3</t>
   </si>
   <si>
+    <t>URU</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
     <t>1A</t>
   </si>
   <si>
     <t>2B</t>
   </si>
   <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
     <t>1B</t>
   </si>
   <si>
     <t>2A</t>
   </si>
   <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
     <t>1C</t>
   </si>
   <si>
     <t>2D</t>
   </si>
   <si>
-    <t>URU</t>
-  </si>
-  <si>
-    <t>BRA</t>
-  </si>
-  <si>
     <t>1D</t>
   </si>
   <si>
     <t>2C</t>
   </si>
   <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
     <t>W25</t>
   </si>
   <si>
@@ -218,162 +374,6 @@
   </si>
   <si>
     <t>team</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>JAM</t>
-  </si>
-  <si>
-    <t>BOL</t>
-  </si>
-  <si>
-    <t>PAR</t>
-  </si>
-  <si>
-    <t>CRC</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>#b0d0ee</t>
-  </si>
-  <si>
-    <t>pale blue</t>
-  </si>
-  <si>
-    <t>#fab077</t>
-  </si>
-  <si>
-    <t>pale orange</t>
-  </si>
-  <si>
-    <t>#c4e1b5</t>
-  </si>
-  <si>
-    <t>pale green</t>
-  </si>
-  <si>
-    <t>#fee289</t>
-  </si>
-  <si>
-    <t>pale yellow</t>
-  </si>
-  <si>
-    <t>usa</t>
-  </si>
-  <si>
-    <t>mens-copa-america</t>
-  </si>
-  <si>
-    <t>us-atlanta-ga</t>
-  </si>
-  <si>
-    <t>us-arlington-tx</t>
-  </si>
-  <si>
-    <t>us-santa-clara-ca</t>
-  </si>
-  <si>
-    <t>us-houston-tx</t>
-  </si>
-  <si>
-    <t>us-miami-fl</t>
-  </si>
-  <si>
-    <t>us-inglewood-ca</t>
-  </si>
-  <si>
-    <t>us-kansas-city-ks</t>
-  </si>
-  <si>
-    <t>us-east-rutherford-nj</t>
-  </si>
-  <si>
-    <t>us-las-vegas-nv</t>
-  </si>
-  <si>
-    <t>us-glendale-az</t>
-  </si>
-  <si>
-    <t>us-orlando-fl</t>
-  </si>
-  <si>
-    <t>us-austin-tx</t>
-  </si>
-  <si>
-    <t>us-kansas-city-mo</t>
-  </si>
-  <si>
-    <t>us-charlotte-nc</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>color.a</t>
-  </si>
-  <si>
-    <t>color.b</t>
-  </si>
-  <si>
-    <t>color.c</t>
-  </si>
-  <si>
-    <t>color.d</t>
-  </si>
-  <si>
-    <t>venue.01</t>
-  </si>
-  <si>
-    <t>venue.02</t>
-  </si>
-  <si>
-    <t>venue.03</t>
-  </si>
-  <si>
-    <t>venue.04</t>
-  </si>
-  <si>
-    <t>venue.05</t>
-  </si>
-  <si>
-    <t>venue.06</t>
-  </si>
-  <si>
-    <t>venue.07</t>
-  </si>
-  <si>
-    <t>venue.08</t>
-  </si>
-  <si>
-    <t>venue.09</t>
-  </si>
-  <si>
-    <t>competition</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>US/Eastern</t>
-  </si>
-  <si>
-    <t>home-known</t>
-  </si>
-  <si>
-    <t>away-known</t>
-  </si>
-  <si>
-    <t>after-extra-time</t>
   </si>
 </sst>
 </file>
@@ -392,15 +392,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -408,13 +414,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,15 +487,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F50DD404-9D19-1348-B9DF-3D118F09D075}" name="Table9" displayName="Table9" ref="A1:C22" totalsRowShown="0">
-  <autoFilter ref="A1:C22" xr:uid="{F50DD404-9D19-1348-B9DF-3D118F09D075}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table9" displayName="Table9" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5B94B860-AA86-BA4A-96A3-B5E6AC38B906}" name="key"/>
-    <tableColumn id="2" xr3:uid="{DB981586-443B-5E46-AE67-1E5E477F5A70}" name="value"/>
-    <tableColumn id="3" xr3:uid="{21D2ECB6-1496-CD44-B8CB-65015792C9FB}" name="notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="key"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="value"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -487,11 +519,11 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-known" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{853604CC-A408-BE45-9C44-CB794E31F333}" name="home-team"/>
-    <tableColumn id="12" xr3:uid="{B14B878A-9949-AF4C-8D75-E1D8991417D9}" name="away-team"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="home-team"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="away-team"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="home-score" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="away-score" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{DC2C29D7-EE6A-4B42-8893-E6EE635F7369}" name="after-extra-time"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="after-extra-time"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="home-tiebreaker" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="away-tiebreaker" dataDxfId="0"/>
   </tableColumns>
@@ -806,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C6FE63-BEFB-3D4E-9750-4443FF101BEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -825,190 +857,190 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1023,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1039,46 +1071,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1086,10 +1118,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1">
         <v>45464</v>
@@ -1104,6 +1136,18 @@
       <c r="G2" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CAN</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1111,10 +1155,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1">
         <v>45465</v>
@@ -1129,6 +1173,18 @@
       <c r="G3" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CHI</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1136,10 +1192,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1">
         <v>45466.041666666657</v>
@@ -1154,6 +1210,18 @@
       <c r="G4" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>JAM</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1161,10 +1229,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1">
         <v>45465.916666666657</v>
@@ -1179,6 +1247,18 @@
       <c r="G5" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>VEN</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1186,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1">
         <v>45466.916666666657</v>
@@ -1204,6 +1284,18 @@
       <c r="G6" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>BOL</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1211,10 +1303,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1">
         <v>45467.041666666657</v>
@@ -1229,6 +1321,18 @@
       <c r="G7" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>PAN</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1236,10 +1340,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1">
         <v>45468.041666666657</v>
@@ -1254,6 +1358,18 @@
       <c r="G8" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CRC</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1261,10 +1377,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1">
         <v>45467.916666666657</v>
@@ -1279,6 +1395,18 @@
       <c r="G9" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>PAR</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1286,10 +1414,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1">
         <v>45469.041666666657</v>
@@ -1304,6 +1432,18 @@
       <c r="G10" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ARG</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1311,10 +1451,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1">
         <v>45468.916666666657</v>
@@ -1329,6 +1469,18 @@
       <c r="G11" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CAN</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1336,10 +1488,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1">
         <v>45470.041666666657</v>
@@ -1354,6 +1506,18 @@
       <c r="G12" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>MEX</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1361,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1">
         <v>45469.916666666657</v>
@@ -1379,6 +1543,18 @@
       <c r="G13" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>JAM</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1386,10 +1562,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1">
         <v>45470.916666666657</v>
@@ -1404,6 +1580,18 @@
       <c r="G14" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>USA</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1411,10 +1599,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1">
         <v>45471.041666666657</v>
@@ -1429,6 +1617,18 @@
       <c r="G15" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>BOL</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1436,10 +1636,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1">
         <v>45472.041666666657</v>
@@ -1455,16 +1655,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>BRA</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1">
         <v>45471.916666666657</v>
@@ -1480,16 +1692,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CRC</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1">
         <v>45473</v>
@@ -1505,16 +1729,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>PER</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1">
         <v>45473</v>
@@ -1530,16 +1766,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>CHI</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1">
         <v>45474</v>
@@ -1555,16 +1803,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>ECU</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1">
         <v>45474</v>
@@ -1580,16 +1840,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>VEN</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1">
         <v>45475.041666666657</v>
@@ -1605,16 +1877,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>URU</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1">
         <v>45475.041666666657</v>
@@ -1630,16 +1914,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>PAN</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>45476.041666666657</v>
@@ -1655,16 +1951,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>COL</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1">
         <v>45476.041666666657</v>
@@ -1680,16 +1988,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v>PAR</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D26" s="1">
         <v>45478.041666666657</v>
@@ -1705,16 +2025,34 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1">
         <v>45479.041666666657</v>
@@ -1730,16 +2068,34 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1">
         <v>45480.041666666657</v>
@@ -1755,16 +2111,34 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1">
         <v>45479.916666666657</v>
@@ -1780,16 +2154,31 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="2">
+        <v>5</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1">
         <v>45483</v>
@@ -1805,16 +2194,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="D31" s="1">
         <v>45484</v>
@@ -1830,16 +2231,28 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D32" s="1">
         <v>45487</v>
@@ -1855,16 +2268,34 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="D33" s="1">
         <v>45488</v>
@@ -1879,6 +2310,21 @@
       <c r="G33" t="str">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)), "")</f>
         <v/>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1902,138 +2348,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/2024-mens-copa-america.xlsx
+++ b/src/stp/database/2024-mens-copa-america.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC03DA07-419E-1F45-A4AA-FB9AA096A24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30309AC-0384-AA45-9A42-DA9B49513DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,8 +445,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:N29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1477,10 +1477,10 @@
         <v>66</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
